--- a/Data Input Sheets/Footprint - Icon - Cry Index.xlsx
+++ b/Data Input Sheets/Footprint - Icon - Cry Index.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1a1f2124126429/Documents/GitHub/pokemon_game/Data Input Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_9EB2E359813A2D588711702AF8BB1C8930D08324" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{06513EC4-B076-4889-BC13-82BA46A65827}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{92F42D9F-B034-4756-9397-CFD408CB66FF}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t xml:space="preserve">Pokemon Number </t>
   </si>
@@ -42,6 +43,9 @@
   </si>
   <si>
     <t>Cry Recorded</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -396,7 +400,7 @@
   <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,15 +434,24 @@
       <c r="A2">
         <v>650</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>651</v>
       </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>652</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/Data Input Sheets/Footprint - Icon - Cry Index.xlsx
+++ b/Data Input Sheets/Footprint - Icon - Cry Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_9EB2E359813A2D588711702AF8BB1C8930D08324" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{06513EC4-B076-4889-BC13-82BA46A65827}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_9EB2E359813A2D588711702AF8BB1C8930D08324" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{34C51DC9-10DB-4563-A341-801A6FA9B7F3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{92F42D9F-B034-4756-9397-CFD408CB66FF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t xml:space="preserve">Pokemon Number </t>
   </si>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,6 +434,9 @@
       <c r="A2">
         <v>650</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
@@ -441,6 +444,9 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>651</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>

--- a/Data Input Sheets/Footprint - Icon - Cry Index.xlsx
+++ b/Data Input Sheets/Footprint - Icon - Cry Index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_9EB2E359813A2D588711702AF8BB1C8930D08324" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{34C51DC9-10DB-4563-A341-801A6FA9B7F3}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_9EB2E359813A2D588711702AF8BB1C8930D08324" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{B20D70B1-95A5-4055-8EEC-3AFC8E9EF397}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{92F42D9F-B034-4756-9397-CFD408CB66FF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
   <si>
     <t xml:space="preserve">Pokemon Number </t>
   </si>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0A5AA2-FBAC-46F6-A2F3-12207B447683}">
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +456,9 @@
       <c r="A4">
         <v>652</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
@@ -464,138 +467,192 @@
       <c r="A5">
         <v>653</v>
       </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>654</v>
       </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>655</v>
       </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>656</v>
       </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>657</v>
       </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>658</v>
       </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>659</v>
       </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>660</v>
       </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>661</v>
       </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>662</v>
       </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>663</v>
       </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>664</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>665</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>666</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>667</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>668</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>669</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>670</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>672</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>673</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>674</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>675</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>676</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>677</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>678</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>680</v>
       </c>
@@ -1723,6 +1780,81 @@
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>905</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>920</v>
       </c>
     </row>
   </sheetData>
